--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-06.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-06.xlsx
@@ -5944,11 +5944,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  Nothing from the leader of Reunion.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  Chernobog's core city has stopped moving. Tell the Sixth, Seventh, and Twelfth Divisions, if they still want to proceed, we'll need... 
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  Nothing from the leader of Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  Chernobog's core city has stopped moving. Tell the Sixth, Seventh, and Twelfth Divisions, if they still want to proceed, we'll need... 
 </t>
   </si>
   <si>
@@ -5968,11 +5968,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  You cannot resist the blade of Ursus. Not this time. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  And you, the pawns of an incapable lord, who are you to give orders to us?
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  You cannot resist the blade of Ursus. Not this time. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  And you, the pawns of an incapable lord, who are you to give orders to us?
 </t>
   </si>
   <si>
@@ -5980,15 +5980,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  Never speak that language to me again! The age of Gaul is over!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  Never again will that language be used to communicate between countries! Not a city of theirs remains! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  Kashchey is determined, a determined champion of Ursus!
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  Never speak that language to me again! The age of Gaul is over!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  Never again will that language be used to communicate between countries! Not a city of theirs remains! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  Kashchey is determined, a determined champion of Ursus!
 </t>
   </si>
   <si>
@@ -6000,7 +6000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  You would ask us to betray our country?
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  You would ask us to betray our country?
 </t>
   </si>
   <si>
@@ -6020,11 +6020,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  ——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  Wei Yenwu's minions. How did you find us? 
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  Wei Yenwu's minions. How did you find us? 
 </t>
   </si>
   <si>
@@ -6032,7 +6032,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  Are you threatening me?
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  Are you threatening me?
 </t>
   </si>
   <si>
@@ -6048,7 +6048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  What are you talking about?
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  What are you talking about?
 </t>
   </si>
   <si>
@@ -6068,7 +6068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  ......
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  ......
 </t>
   </si>
   <si>
@@ -6076,11 +6076,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  We will. You put a stop to your people. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="“Emperors' Blade”"]  And you, old men... You're not in the Imperial Guard anymore. Don't interfere. 
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  We will. You put a stop to your people. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Emperors' Blade'"]  And you, old men... You're not in the Imperial Guard anymore. Don't interfere. 
 </t>
   </si>
   <si>
@@ -6372,7 +6372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nine"]  Call me "Nine."
+    <t xml:space="preserve">[name="Nine"]  Call me 'Nine.'
 </t>
   </si>
   <si>
@@ -6632,7 +6632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  I met 'Kashchey". He may be more evil than either of us know. 
+    <t xml:space="preserve">[name="Ch'en"]  I met 'Kashchey'. He may be more evil than either of us know. 
 </t>
   </si>
   <si>
@@ -7456,7 +7456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  "What did you have for breakfast? And what will you eat for dinner?"  
+    <t xml:space="preserve">[name="??? "]  'What did you have for breakfast? And what will you eat for dinner?'  
 </t>
   </si>
   <si>
@@ -7736,7 +7736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fyodor"]  More importantly, Witte, is the legend true? Is the "Deathleess Black Snake" a malignant deity that cannot be slain? 
+    <t xml:space="preserve">[name="Fyodor"]  More importantly, Witte, is the legend true? Is the 'Deathleess Black Snake' a malignant deity that cannot be slain? 
 </t>
   </si>
   <si>
@@ -8148,7 +8148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="켈시"]  첸, 우리 쪽 비행기가 사령탑에 착륙할 거다. 우리와 함께 가자, 탈룰라도.
+    <t xml:space="preserve">[name="켈시"]  첸, 우리 쪽 비행체가 사령탑에 착륙할 거다. 우리와 함께 가자, 탈룰라도.
 </t>
   </si>
   <si>
@@ -8388,7 +8388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="엘리시움"] 그야 우리가 항상 로도스 아일랜드에서 작전팀으로만 활동하는 건 아니잖아.
+    <t xml:space="preserve">[name="엘리시움"] 그야…… 우리가 항상 로도스 아일랜드에서 작전팀으로만 활동하는 건 아니잖아.
 </t>
   </si>
   <si>
@@ -9640,7 +9640,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="블레이즈"]  블루이쉬실버도 알게 될 거야…… 에이스도 알게 될 거고…… 애기고양이가…… 우리 애기고양이가 이젠 다 컸다는 걸……
+    <t xml:space="preserve">[name="블레이즈"]  블루이쉬실버도 알게 될 거야…… 에이스도 알게 될 거고…… 애기 고양이가…… 우리 애기 고양이가 이젠 다 컸다는 걸……
 </t>
   </si>
   <si>
@@ -9940,7 +9940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]  박사……
+    <t xml:space="preserve">[name="아미야"]  박사님……
 </t>
   </si>
   <si>
@@ -10564,7 +10564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="프로스트노바"]  (아버지는 아군의 손실을 줄이기 위해 언제나 신중하게 행동하시지. 내게도 늘 조심해야 한다고 말씀하셨어.)
+    <t xml:space="preserve">[name="프로스트노바"]  (아빠는 아군의 손실을 줄이기 위해 언제나 신중하게 행동하지. 내게도 늘 조심해야 한다고 그랬어.)
 </t>
   </si>
   <si>
@@ -10572,7 +10572,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="프로스트노바"]  (아버지가 주무시는 걸 본 적 없어, 단 한 번도.)
+    <t xml:space="preserve">[name="프로스트노바"]  (난 아빠가 자는 걸 본 적이 없어, 단 한 번도.)
 </t>
   </si>
   <si>
@@ -10580,7 +10580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="프로스트노바"]  (그분보단 너부터 챙기지그래. 그나저나, 네가 며칠 전에 연락했던 사람들 이름이 뭐였지? 어디 사람이야?)
+    <t xml:space="preserve">[name="프로스트노바"]  (우리 아빠보단 너부터 챙기지그래. 그나저나, 네가 며칠 전에 연락했던 사람들 이름이 뭐였지? 어디 사람이야?)
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-06.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_08-06.xlsx
@@ -5348,7 +5348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="What’s going on?;How did...?;Kal'tsit, do something!", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="What's going on?;How did...?;Kal'tsit, do something!", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -5700,7 +5700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hawk"] I never thought the plan would flip around to helping Reunion like this…
+    <t xml:space="preserve">[name="Hawk"] I never thought the plan would flip around to helping Reunion like this...
 </t>
   </si>
   <si>
@@ -6632,7 +6632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  I met 'Kashchey'. He may be more evil than either of us know. 
+    <t xml:space="preserve">[name="Ch'en"]  I met 'Kashchey.' He may be more evil than either of us know. 
 </t>
   </si>
   <si>
